--- a/4 analysis/results table.xlsx
+++ b/4 analysis/results table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickm\Documents\GitHub\Word-Norms-2\4 analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6854CBDC-6F80-4695-BDE6-3F2CFAB529CC}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B6D0CB-547F-4DB3-B768-679EF4B8F558}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" xr2:uid="{C0A73048-FE2D-42E7-932C-451EF13CB87B}"/>
   </bookViews>
@@ -40,9 +40,6 @@
     <t>Faldt 200 RT 4</t>
   </si>
   <si>
-    <t>Faldt 1200 RT1</t>
-  </si>
-  <si>
     <t>Faldt 1200 RT 2</t>
   </si>
   <si>
@@ -293,6 +290,9 @@
   </si>
   <si>
     <t>jcn.y</t>
+  </si>
+  <si>
+    <t>Faldt 1200 RT 1</t>
   </si>
 </sst>
 </file>
@@ -689,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81316B8C-6F32-4FE9-AD00-08D15AEFF08F}">
   <dimension ref="A1:BM24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,8 +699,7 @@
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="5" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" customWidth="1"/>
     <col min="9" max="9" width="15.140625" customWidth="1"/>
@@ -757,7 +756,7 @@
   <sheetData>
     <row r="1" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -772,189 +771,189 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>50</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>51</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>52</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>53</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>54</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>55</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>56</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>57</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>58</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>59</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>60</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>61</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>62</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2">
         <v>0.74124999999999996</v>
@@ -969,7 +968,7 @@
         <v>0.51880999999999999</v>
       </c>
       <c r="F2">
-        <v>0.74124999999999996</v>
+        <v>0.13750000000000001</v>
       </c>
       <c r="G2">
         <v>0.13350000000000001</v>
@@ -993,16 +992,16 @@
         <v>0.50173000000000001</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O2">
         <v>1.07E-3</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R2">
         <v>0.14899999999999999</v>
@@ -1151,31 +1150,31 @@
     </row>
     <row r="3" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J3">
         <v>0.2205</v>
@@ -1202,28 +1201,28 @@
         <v>0.88367799999999996</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z3">
         <v>0.77400000000000002</v>
@@ -1250,28 +1249,28 @@
         <v>0.68898999999999999</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AL3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AN3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AO3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AP3">
         <v>0.32940000000000003</v>
@@ -1298,28 +1297,28 @@
         <v>0.89590999999999998</v>
       </c>
       <c r="AX3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AY3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AZ3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BA3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BB3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BC3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BD3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BE3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BF3">
         <v>0.48370000000000002</v>
@@ -1348,7 +1347,7 @@
     </row>
     <row r="4" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4">
         <v>0.89376</v>
@@ -1363,7 +1362,7 @@
         <v>0.75832999999999995</v>
       </c>
       <c r="F4">
-        <v>0.89376</v>
+        <v>0.57069999999999999</v>
       </c>
       <c r="G4">
         <v>0.48020000000000002</v>
@@ -1545,7 +1544,7 @@
     </row>
     <row r="5" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5">
         <v>0.48921999999999999</v>
@@ -1560,7 +1559,7 @@
         <v>0.24890000000000001</v>
       </c>
       <c r="F5">
-        <v>0.48921999999999999</v>
+        <v>8.3599999999999994E-2</v>
       </c>
       <c r="G5">
         <v>2.35E-2</v>
@@ -1659,13 +1658,13 @@
         <v>0.40510000000000002</v>
       </c>
       <c r="AM5" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AN5" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AO5" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AP5">
         <v>0.33600000000000002</v>
@@ -1742,7 +1741,7 @@
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6">
         <v>0.83274999999999999</v>
@@ -1757,7 +1756,7 @@
         <v>0.58196000000000003</v>
       </c>
       <c r="F6">
-        <v>0.83274999999999999</v>
+        <v>0.18240000000000001</v>
       </c>
       <c r="G6">
         <v>0.13850000000000001</v>
@@ -1939,7 +1938,7 @@
     </row>
     <row r="7" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7">
         <v>0.48022999999999999</v>
@@ -1954,7 +1953,7 @@
         <v>0.59384999999999999</v>
       </c>
       <c r="F7">
-        <v>0.48022999999999999</v>
+        <v>0.44450000000000001</v>
       </c>
       <c r="G7">
         <v>0.6784</v>
@@ -2136,7 +2135,7 @@
     </row>
     <row r="8" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B8">
         <v>0.70072999999999996</v>
@@ -2151,7 +2150,7 @@
         <v>0.73007</v>
       </c>
       <c r="F8">
-        <v>0.70072999999999996</v>
+        <v>0.5464</v>
       </c>
       <c r="G8">
         <v>0.48849999999999999</v>
@@ -2333,7 +2332,7 @@
     </row>
     <row r="9" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B9">
         <v>0.15701000000000001</v>
@@ -2348,7 +2347,7 @@
         <v>0.23277</v>
       </c>
       <c r="F9">
-        <v>0.15701000000000001</v>
+        <v>0.33579999999999999</v>
       </c>
       <c r="G9">
         <v>0.56279999999999997</v>
@@ -2530,7 +2529,7 @@
     </row>
     <row r="10" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B10">
         <v>0.37583</v>
@@ -2545,7 +2544,7 @@
         <v>0.44111</v>
       </c>
       <c r="F10">
-        <v>0.37583</v>
+        <v>0.1195</v>
       </c>
       <c r="G10">
         <v>0.25090000000000001</v>
@@ -2727,7 +2726,7 @@
     </row>
     <row r="11" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B11">
         <v>6.3800000000000003E-3</v>
@@ -2742,7 +2741,7 @@
         <v>0.12817000000000001</v>
       </c>
       <c r="F11">
-        <v>6.3800000000000003E-3</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="G11">
         <v>0.52800000000000002</v>
@@ -2924,7 +2923,7 @@
     </row>
     <row r="12" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12">
         <v>0.78917000000000004</v>
@@ -3070,7 +3069,7 @@
     </row>
     <row r="13" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13">
         <v>1.06E-3</v>
@@ -3145,13 +3144,13 @@
         <v>0.47669</v>
       </c>
       <c r="AI13" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AJ13" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AK13" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AM13">
         <v>6.4000000000000003E-3</v>
@@ -3219,7 +3218,7 @@
     </row>
     <row r="14" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14">
         <v>0.37136000000000002</v>
@@ -3368,25 +3367,26 @@
     </row>
     <row r="15" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>70</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K15">
         <v>4.346E-3</v>
@@ -3443,22 +3443,22 @@
         <v>1.8799999999999999E-3</v>
       </c>
       <c r="AI15" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AJ15" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AK15" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AM15" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AN15" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AO15" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AQ15">
         <v>6.7299999999999999E-2</v>
@@ -3517,7 +3517,7 @@
     </row>
     <row r="16" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D16">
         <v>0.47440500000000002</v>
@@ -3618,7 +3618,7 @@
     </row>
     <row r="17" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D17">
         <v>0.39652999999999999</v>
@@ -3719,7 +3719,7 @@
     </row>
     <row r="18" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D18">
         <v>0.210311</v>
@@ -3820,7 +3820,7 @@
     </row>
     <row r="19" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D19">
         <v>0.104412</v>
@@ -3921,7 +3921,7 @@
     </row>
     <row r="20" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D20">
         <v>0.11008900000000001</v>
@@ -4022,7 +4022,7 @@
     </row>
     <row r="21" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21">
         <v>0.70437700000000003</v>
@@ -4123,7 +4123,7 @@
     </row>
     <row r="22" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22">
         <v>0.26174799999999998</v>
@@ -4224,10 +4224,10 @@
     </row>
     <row r="23" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E23">
         <v>5.6030000000000003E-2</v>
@@ -4281,7 +4281,7 @@
         <v>0.221721</v>
       </c>
       <c r="AN23" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AO23">
         <v>1.959E-2</v>
@@ -4325,7 +4325,7 @@
     </row>
     <row r="24" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E24">
         <v>6.2899999999999996E-3</v>

--- a/4 analysis/results table.xlsx
+++ b/4 analysis/results table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickm\Documents\GitHub\Word-Norms-2\4 analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B6D0CB-547F-4DB3-B768-679EF4B8F558}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A15B0A-60DD-4B99-9502-F9E82322775E}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" xr2:uid="{C0A73048-FE2D-42E7-932C-451EF13CB87B}"/>
   </bookViews>
@@ -133,9 +133,6 @@
     <t>Oald 200 RT 4</t>
   </si>
   <si>
-    <t>Oaldt 1200 RT 1</t>
-  </si>
-  <si>
     <t>Oald 1200 RT 2</t>
   </si>
   <si>
@@ -293,6 +290,9 @@
   </si>
   <si>
     <t>Faldt 1200 RT 1</t>
+  </si>
+  <si>
+    <t>Oald 1200 RT 1</t>
   </si>
 </sst>
 </file>
@@ -689,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81316B8C-6F32-4FE9-AD00-08D15AEFF08F}">
   <dimension ref="A1:BM24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
+      <selection activeCell="AM6" sqref="AM6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,7 +756,7 @@
   <sheetData>
     <row r="1" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -771,7 +771,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -867,93 +867,93 @@
         <v>34</v>
       </c>
       <c r="AL1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM1" t="s">
         <v>35</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>36</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>37</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>38</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>39</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>40</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>41</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>42</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>43</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>44</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>45</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>46</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>47</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>48</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>49</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>50</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>51</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>52</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>53</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>54</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>55</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>56</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>57</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>58</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>59</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>60</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>61</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2">
         <v>0.74124999999999996</v>
@@ -992,16 +992,16 @@
         <v>0.50173000000000001</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O2">
         <v>1.07E-3</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R2">
         <v>0.14899999999999999</v>
@@ -1064,7 +1064,7 @@
         <v>1.8433999999999999E-2</v>
       </c>
       <c r="AL2">
-        <v>0.13519999999999999</v>
+        <v>9.6249999999999999E-3</v>
       </c>
       <c r="AM2">
         <v>7.5459999999999999E-2</v>
@@ -1150,31 +1150,31 @@
     </row>
     <row r="3" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J3">
         <v>0.2205</v>
@@ -1201,28 +1201,28 @@
         <v>0.88367799999999996</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Z3">
         <v>0.77400000000000002</v>
@@ -1249,28 +1249,28 @@
         <v>0.68898999999999999</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AL3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AN3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AO3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AP3">
         <v>0.32940000000000003</v>
@@ -1297,28 +1297,28 @@
         <v>0.89590999999999998</v>
       </c>
       <c r="AX3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AY3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AZ3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BA3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BB3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BC3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BD3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BE3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BF3">
         <v>0.48370000000000002</v>
@@ -1347,7 +1347,7 @@
     </row>
     <row r="4" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4">
         <v>0.89376</v>
@@ -1458,7 +1458,7 @@
         <v>0.428199</v>
       </c>
       <c r="AL4">
-        <v>0.58109999999999995</v>
+        <v>0.214888</v>
       </c>
       <c r="AM4">
         <v>0.35610000000000003</v>
@@ -1544,7 +1544,7 @@
     </row>
     <row r="5" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5">
         <v>0.48921999999999999</v>
@@ -1655,16 +1655,16 @@
         <v>0.21354300000000001</v>
       </c>
       <c r="AL5">
-        <v>0.40510000000000002</v>
+        <v>9.0399999999999996E-4</v>
       </c>
       <c r="AM5" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AN5" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AO5" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AP5">
         <v>0.33600000000000002</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6">
         <v>0.83274999999999999</v>
@@ -1852,7 +1852,7 @@
         <v>0.381104</v>
       </c>
       <c r="AL6">
-        <v>8.7099999999999997E-2</v>
+        <v>0.78594900000000001</v>
       </c>
       <c r="AM6">
         <v>0.84623999999999999</v>
@@ -1938,7 +1938,7 @@
     </row>
     <row r="7" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B7">
         <v>0.48022999999999999</v>
@@ -2049,7 +2049,7 @@
         <v>0.37980399999999997</v>
       </c>
       <c r="AL7">
-        <v>0.4556</v>
+        <v>0.91510800000000003</v>
       </c>
       <c r="AM7">
         <v>0.85023000000000004</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="8" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B8">
         <v>0.70072999999999996</v>
@@ -2246,7 +2246,7 @@
         <v>5.1415000000000002E-2</v>
       </c>
       <c r="AL8">
-        <v>9.4100000000000003E-2</v>
+        <v>0.256023</v>
       </c>
       <c r="AM8">
         <v>0.24665000000000001</v>
@@ -2332,7 +2332,7 @@
     </row>
     <row r="9" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B9">
         <v>0.15701000000000001</v>
@@ -2443,7 +2443,7 @@
         <v>0.90427199999999996</v>
       </c>
       <c r="AL9">
-        <v>0.97230000000000005</v>
+        <v>0.42968699999999999</v>
       </c>
       <c r="AM9">
         <v>0.25285000000000002</v>
@@ -2529,7 +2529,7 @@
     </row>
     <row r="10" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B10">
         <v>0.37583</v>
@@ -2640,7 +2640,7 @@
         <v>0.41786600000000002</v>
       </c>
       <c r="AL10">
-        <v>0.4446</v>
+        <v>0.26325500000000002</v>
       </c>
       <c r="AM10">
         <v>0.10752</v>
@@ -2726,7 +2726,7 @@
     </row>
     <row r="11" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B11">
         <v>6.3800000000000003E-3</v>
@@ -2837,7 +2837,7 @@
         <v>0.41450999999999999</v>
       </c>
       <c r="AL11">
-        <v>1.18E-2</v>
+        <v>8.8240000000000002E-3</v>
       </c>
       <c r="AM11">
         <v>0.12299</v>
@@ -2923,7 +2923,7 @@
     </row>
     <row r="12" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12">
         <v>0.78917000000000004</v>
@@ -3069,7 +3069,7 @@
     </row>
     <row r="13" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13">
         <v>1.06E-3</v>
@@ -3144,13 +3144,13 @@
         <v>0.47669</v>
       </c>
       <c r="AI13" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AJ13" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AK13" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AM13">
         <v>6.4000000000000003E-3</v>
@@ -3218,7 +3218,7 @@
     </row>
     <row r="14" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14">
         <v>0.37136000000000002</v>
@@ -3367,26 +3367,26 @@
     </row>
     <row r="15" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K15">
         <v>4.346E-3</v>
@@ -3443,22 +3443,22 @@
         <v>1.8799999999999999E-3</v>
       </c>
       <c r="AI15" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AJ15" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AK15" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AM15" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AN15" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AO15" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AQ15">
         <v>6.7299999999999999E-2</v>
@@ -3517,7 +3517,7 @@
     </row>
     <row r="16" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D16">
         <v>0.47440500000000002</v>
@@ -3618,7 +3618,7 @@
     </row>
     <row r="17" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D17">
         <v>0.39652999999999999</v>
@@ -3719,7 +3719,7 @@
     </row>
     <row r="18" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D18">
         <v>0.210311</v>
@@ -3820,7 +3820,7 @@
     </row>
     <row r="19" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D19">
         <v>0.104412</v>
@@ -3921,7 +3921,7 @@
     </row>
     <row r="20" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D20">
         <v>0.11008900000000001</v>
@@ -4022,7 +4022,7 @@
     </row>
     <row r="21" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21">
         <v>0.70437700000000003</v>
@@ -4123,7 +4123,7 @@
     </row>
     <row r="22" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22">
         <v>0.26174799999999998</v>
@@ -4224,10 +4224,10 @@
     </row>
     <row r="23" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E23">
         <v>5.6030000000000003E-2</v>
@@ -4281,7 +4281,7 @@
         <v>0.221721</v>
       </c>
       <c r="AN23" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AO23">
         <v>1.959E-2</v>
@@ -4325,7 +4325,7 @@
     </row>
     <row r="24" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E24">
         <v>6.2899999999999996E-3</v>
